--- a/Results/Notebook 3 Performance/Scores/problem_1_instance1_scores.xlsx
+++ b/Results/Notebook 3 Performance/Scores/problem_1_instance1_scores.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3206062614917755</v>
+        <v>0.3448735177516937</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3522045016288757</v>
+        <v>0.3289481997489929</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4618641596613995</v>
+        <v>0.4984879726753482</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5738861740165948</v>
+        <v>0.5159719049806877</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2162626093751145</v>
+        <v>0.2227258788774616</v>
       </c>
       <c r="C4" t="n">
-        <v>0.229795905732887</v>
+        <v>0.2120054008814109</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1570000052452087</v>
+        <v>0.2230000048875809</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2255000025033951</v>
+        <v>0.1959999948740005</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.284094899892807</v>
+        <v>-0.2570435404777527</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.2517974674701691</v>
+        <v>-0.278084397315979</v>
       </c>
     </row>
   </sheetData>
